--- a/StructureDefinition-C4BB-Practitioner.xlsx
+++ b/StructureDefinition-C4BB-Practitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="339">
   <si>
     <t>Path</t>
   </si>
@@ -548,183 +548,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>NPI</t>
@@ -820,6 +643,9 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>The use of a human name.</t>
   </si>
   <si>
@@ -960,6 +786,10 @@
     <t>Practitioner.name.period</t>
   </si>
   <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
     <t>Time period when name was/is in use</t>
   </si>
   <si>
@@ -976,6 +806,9 @@
   </si>
   <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -1172,6 +1005,10 @@
     <t>Practitioner.qualification.code</t>
   </si>
   <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
     <t>Coded representation of the qualification</t>
   </si>
   <si>
@@ -1206,6 +1043,10 @@
   </si>
   <si>
     <t>Practitioner.qualification.issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification</t>
@@ -1387,7 +1228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM53"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1432,7 +1273,7 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="56.171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="55.41796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="52.37890625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -3452,7 +3293,7 @@
         <v>51</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>52</v>
@@ -3550,41 +3391,45 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>43</v>
       </c>
@@ -3593,7 +3438,7 @@
         <v>43</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>43</v>
@@ -3632,47 +3477,47 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>43</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>43</v>
@@ -3681,25 +3526,29 @@
         <v>43</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="P21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="Q21" t="s" s="2">
         <v>43</v>
       </c>
@@ -3731,48 +3580,48 @@
         <v>43</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>43</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3780,34 +3629,34 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>43</v>
@@ -3832,13 +3681,13 @@
         <v>43</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>43</v>
@@ -3856,13 +3705,13 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>43</v>
@@ -3871,13 +3720,13 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>43</v>
@@ -3885,7 +3734,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3905,23 +3754,19 @@
         <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>43</v>
       </c>
@@ -3945,13 +3790,13 @@
         <v>43</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>188</v>
+        <v>43</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>43</v>
@@ -3969,7 +3814,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3981,60 +3826,58 @@
         <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>43</v>
       </c>
@@ -4046,7 +3889,7 @@
         <v>43</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>43</v>
@@ -4070,48 +3913,48 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4119,33 +3962,35 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
       </c>
@@ -4157,7 +4002,7 @@
         <v>43</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>43</v>
@@ -4169,13 +4014,13 @@
         <v>43</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>43</v>
@@ -4193,7 +4038,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4208,13 +4053,13 @@
         <v>63</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -4222,7 +4067,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4245,16 +4090,20 @@
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4302,7 +4151,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4317,35 +4166,35 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>43</v>
@@ -4354,16 +4203,16 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4413,7 +4262,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4428,37 +4277,35 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>43</v>
@@ -4467,18 +4314,18 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4487,7 +4334,7 @@
         <v>43</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>43</v>
@@ -4526,7 +4373,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4541,16 +4388,16 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>169</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -4566,7 +4413,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>43</v>
@@ -4578,76 +4425,70 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>43</v>
@@ -4656,21 +4497,21 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4678,13 +4519,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>43</v>
@@ -4693,20 +4534,16 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
@@ -4754,7 +4591,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4769,13 +4606,13 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>43</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4783,7 +4620,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4803,19 +4640,21 @@
         <v>43</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -4863,7 +4702,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4875,16 +4714,16 @@
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -4892,11 +4731,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4912,21 +4751,23 @@
         <v>43</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>71</v>
+        <v>253</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
       </c>
@@ -4962,19 +4803,19 @@
         <v>43</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4986,16 +4827,16 @@
         <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>258</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>68</v>
+        <v>259</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -5003,7 +4844,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5014,31 +4855,31 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>127</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5063,13 +4904,13 @@
         <v>43</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>256</v>
+        <v>43</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>43</v>
@@ -5087,13 +4928,13 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>43</v>
@@ -5102,13 +4943,13 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -5116,7 +4957,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5139,19 +4980,17 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5176,13 +5015,13 @@
         <v>43</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>43</v>
@@ -5200,7 +5039,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5215,35 +5054,35 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>43</v>
@@ -5252,18 +5091,18 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
       </c>
@@ -5311,7 +5150,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5326,13 +5165,13 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5340,11 +5179,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>279</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5360,21 +5199,21 @@
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>53</v>
+        <v>288</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
       </c>
@@ -5422,7 +5261,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5437,13 +5276,13 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
@@ -5451,7 +5290,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5471,16 +5310,16 @@
         <v>43</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5531,7 +5370,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5546,13 +5385,13 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -5560,7 +5399,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5571,7 +5410,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>43</v>
@@ -5580,16 +5419,16 @@
         <v>43</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>65</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>66</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5640,25 +5479,25 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>67</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>68</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
@@ -5669,18 +5508,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>43</v>
@@ -5689,21 +5528,21 @@
         <v>43</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>301</v>
+        <v>72</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>43</v>
       </c>
@@ -5751,28 +5590,28 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>305</v>
+        <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>43</v>
@@ -5780,11 +5619,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5797,25 +5636,25 @@
         <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>308</v>
+        <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
+        <v>74</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>312</v>
+        <v>157</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -5876,16 +5715,16 @@
         <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>313</v>
+        <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>43</v>
@@ -5893,7 +5732,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5913,22 +5752,20 @@
         <v>43</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>317</v>
+        <v>160</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
@@ -5977,7 +5814,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5992,13 +5829,13 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>43</v>
@@ -6006,7 +5843,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6014,7 +5851,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>51</v>
@@ -6026,21 +5863,19 @@
         <v>43</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>43</v>
       </c>
@@ -6064,13 +5899,13 @@
         <v>43</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>43</v>
@@ -6088,10 +5923,10 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>51</v>
@@ -6103,13 +5938,13 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>331</v>
+        <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>43</v>
@@ -6117,7 +5952,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6137,20 +5972,20 @@
         <v>43</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>43</v>
@@ -6199,7 +6034,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6214,13 +6049,13 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>43</v>
@@ -6228,7 +6063,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6239,7 +6074,7 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>43</v>
@@ -6251,18 +6086,16 @@
         <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>43</v>
       </c>
@@ -6310,13 +6143,13 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>43</v>
@@ -6328,10 +6161,10 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>348</v>
+        <v>43</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6339,7 +6172,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6362,16 +6195,20 @@
         <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
       </c>
@@ -6395,13 +6232,13 @@
         <v>43</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>43</v>
@@ -6419,7 +6256,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6434,906 +6271,20 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AM53" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM53">
+  <autoFilter ref="A1:AM45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7343,7 +6294,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-C4BB-Practitioner.xlsx
+++ b/StructureDefinition-C4BB-Practitioner.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="343">
   <si>
     <t>Path</t>
   </si>
@@ -157,7 +157,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}Practitioner-identifier:Practitioner.identifier must include an NPI or a Tax ID {identifier.where(type.where(coding.where(code in ('npi' | 'TAX')).exists()).exists()).exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -298,7 +298,7 @@
     <t>When the resource last changed - e.g. when the version changed.</t>
   </si>
   <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+    <t>Defines the date the Resource was created or updated, whichever comes last (163).  Payers SHALL provide the last time the data was updated or the date of creation in the payer’s system of record, whichever comes last. Apps will use the meta.lastUpdated value to determine if the Reference resources are as of the current date or date of service.</t>
   </si>
   <si>
     <t>Meta.lastUpdated</t>
@@ -337,7 +337,7 @@
     <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+    <t>CPCDS data element (190)</t>
   </si>
   <si>
     <t>Meta.profile</t>
@@ -553,11 +553,37 @@
     <t>NPI</t>
   </si>
   <si>
+    <t>The National Provider Identifier assigned to the Performing Provider. This is the lowest level of provider available (for example, if both individual and group are available, then the individual should be provided) (95).  Either the Tax Id or an NPI must be provided</t>
+  </si>
+  <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBIdentifierType"/&gt;
+      &lt;code value="npi"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
   &lt;system value="http://hl7.org/fhir/sid/us-npi"/&gt;
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Tax ID Number.  Either the Tax Id or an NPI must be provided</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;type&gt;
+    &lt;coding&gt;
+      &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+      &lt;code value="TAX"/&gt;
+    &lt;/coding&gt;
+  &lt;/type&gt;
+  &lt;system value="urn:oid:2.16.840.1.113883.4.4"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
     <t>Practitioner.active</t>
   </si>
   <si>
@@ -599,15 +625,7 @@
     <t>The name(s) associated with the practitioner.</t>
   </si>
   <si>
-    <t>The selection of the use property should ensure that there is a single usual name specified, and others use the nickname (alias), old, or other values as appropriate.  --In general, select the value to be used in the ResourceReference.display based on this:--1. There is more than 1 name-2. Use = usual-3. Period is current to the date of the usage-4. Use = official-5. Other order as decided by internal business rules.</t>
+    <t>The name of the Performing Provider. This is the lowest level of provider available (for example, if both individual and group are available, then the individual should be provided) (168)</t>
   </si>
   <si>
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
@@ -853,7 +871,7 @@
 Work addresses are not typically entered in this property as they are usually role dependent.</t>
   </si>
   <si>
-    <t>The PractitionerRole does not have an address value on it, as it is expected that the location property be used for this purpose (which has an address).</t>
+    <t>Address(es) of the practitioner</t>
   </si>
   <si>
     <t>The home/mailing address of the practitioner is often required for employee administration purposes, and also for some rostering services where the start point (practitioners home) can be used in calculations.</t>
@@ -1228,7 +1246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1617,7 +1635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>58</v>
       </c>
@@ -1627,13 +1645,13 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>43</v>
@@ -3293,7 +3311,7 @@
         <v>51</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>52</v>
@@ -3403,7 +3421,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>51</v>
@@ -3426,7 +3444,9 @@
       <c r="L20" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N20" t="s" s="2">
         <v>164</v>
       </c>
@@ -3438,7 +3458,7 @@
         <v>43</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>43</v>
@@ -3504,11 +3524,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>43</v>
       </c>
@@ -3517,10 +3539,10 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>43</v>
@@ -3529,32 +3551,30 @@
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R21" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="S21" t="s" s="2">
         <v>43</v>
       </c>
@@ -3592,13 +3612,13 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>43</v>
@@ -3607,21 +3627,21 @@
         <v>63</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3629,13 +3649,13 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G22" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>43</v>
@@ -3644,24 +3664,26 @@
         <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>43</v>
       </c>
@@ -3705,13 +3727,13 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>43</v>
@@ -3720,21 +3742,21 @@
         <v>63</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>43</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3742,31 +3764,35 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>43</v>
       </c>
@@ -3814,28 +3840,28 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -3843,18 +3869,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>43</v>
@@ -3866,17 +3892,15 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>43</v>
@@ -3913,31 +3937,31 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>43</v>
@@ -3954,43 +3978,41 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>43</v>
       </c>
@@ -4014,52 +4036,52 @@
         <v>43</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -4067,7 +4089,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4084,25 +4106,25 @@
         <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
@@ -4127,13 +4149,13 @@
         <v>43</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
@@ -4151,7 +4173,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4166,35 +4188,35 @@
         <v>63</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>43</v>
+        <v>207</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>43</v>
@@ -4206,15 +4228,17 @@
         <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
       </c>
@@ -4262,7 +4286,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4277,35 +4301,35 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>43</v>
@@ -4317,13 +4341,13 @@
         <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4373,13 +4397,13 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>43</v>
@@ -4388,13 +4412,13 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4402,11 +4426,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4428,12 +4452,14 @@
         <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4482,7 +4508,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4497,13 +4523,13 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4511,7 +4537,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4537,10 +4563,10 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4591,7 +4617,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4606,13 +4632,13 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>43</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4620,7 +4646,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4631,7 +4657,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>43</v>
@@ -4643,18 +4669,16 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>43</v>
       </c>
@@ -4702,13 +4726,13 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>43</v>
@@ -4717,13 +4741,13 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -4731,7 +4755,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4742,7 +4766,7 @@
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>43</v>
@@ -4754,19 +4778,17 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
@@ -4821,7 +4843,7 @@
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>43</v>
@@ -4830,13 +4852,13 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -4844,7 +4866,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4867,19 +4889,19 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -4928,7 +4950,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4943,13 +4965,13 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -4957,7 +4979,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4968,7 +4990,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>43</v>
@@ -4980,17 +5002,19 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5015,13 +5039,13 @@
         <v>43</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>274</v>
+        <v>43</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>275</v>
+        <v>43</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>43</v>
@@ -5039,13 +5063,13 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>43</v>
@@ -5054,13 +5078,13 @@
         <v>63</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -5068,7 +5092,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5091,17 +5115,17 @@
         <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5126,13 +5150,13 @@
         <v>43</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>43</v>
+        <v>278</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>43</v>
@@ -5150,7 +5174,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5165,13 +5189,13 @@
         <v>63</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5179,7 +5203,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5190,7 +5214,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>43</v>
@@ -5199,20 +5223,20 @@
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5261,13 +5285,13 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>43</v>
@@ -5276,13 +5300,13 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>43</v>
@@ -5290,7 +5314,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5313,16 +5337,18 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>43</v>
       </c>
@@ -5370,7 +5396,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5385,13 +5411,13 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -5399,7 +5425,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5410,7 +5436,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>43</v>
@@ -5422,13 +5448,13 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>53</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>66</v>
+        <v>301</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5479,28 +5505,28 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>43</v>
+        <v>302</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -5508,18 +5534,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>43</v>
@@ -5531,17 +5557,15 @@
         <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>43</v>
@@ -5590,19 +5614,19 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>43</v>
@@ -5619,11 +5643,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>304</v>
+        <v>70</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5636,26 +5660,24 @@
         <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>73</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>43</v>
       </c>
@@ -5703,7 +5725,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5721,7 +5743,7 @@
         <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>43</v>
@@ -5732,11 +5754,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>43</v>
+        <v>308</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5749,13 +5771,13 @@
         <v>43</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>309</v>
@@ -5763,9 +5785,11 @@
       <c r="L41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>43</v>
@@ -5814,7 +5838,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5826,13 +5850,13 @@
         <v>43</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>43</v>
@@ -5843,7 +5867,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5851,10 +5875,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>43</v>
@@ -5866,16 +5890,18 @@
         <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="M42" s="2"/>
+      <c r="N42" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>43</v>
       </c>
@@ -5899,13 +5925,13 @@
         <v>43</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>43</v>
@@ -5923,13 +5949,13 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>43</v>
@@ -5941,10 +5967,10 @@
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>43</v>
@@ -5952,7 +5978,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5960,7 +5986,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -5975,18 +6001,16 @@
         <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>244</v>
+        <v>318</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>43</v>
       </c>
@@ -6010,13 +6034,13 @@
         <v>43</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>43</v>
+        <v>321</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>43</v>
@@ -6034,10 +6058,10 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>51</v>
@@ -6052,10 +6076,10 @@
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>43</v>
@@ -6063,7 +6087,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6086,16 +6110,18 @@
         <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>43</v>
       </c>
@@ -6143,7 +6169,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6161,10 +6187,10 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6172,7 +6198,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6183,7 +6209,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>43</v>
@@ -6195,7 +6221,7 @@
         <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>332</v>
@@ -6203,12 +6229,8 @@
       <c r="L45" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>43</v>
       </c>
@@ -6232,13 +6254,13 @@
         <v>43</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>43</v>
@@ -6256,13 +6278,13 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>43</v>
@@ -6271,20 +6293,133 @@
         <v>63</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="N46" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM45">
+  <autoFilter ref="A1:AM46">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6294,7 +6429,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
